--- a/excel/CUHP-my_cuhp comparison.xlsx
+++ b/excel/CUHP-my_cuhp comparison.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="91">
   <si>
     <t>Summary of Unit Hydrograph Parameters Used By Program and Calculated Results (Version 2.0.0)</t>
   </si>
@@ -299,17 +299,24 @@
   <si>
     <t>area*impr</t>
   </si>
+  <si>
+    <t>adjust factor</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
     <numFmt numFmtId="168" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="171" formatCode="#,##0.0000000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -614,7 +621,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -727,6 +734,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3253,10 +3261,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:U61"/>
+  <dimension ref="A2:X61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6:U6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3275,16 +3283,18 @@
     <col min="14" max="14" width="9.140625" style="4"/>
     <col min="15" max="16" width="9.140625" style="2"/>
     <col min="17" max="17" width="10.7109375" style="5" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="2"/>
+    <col min="18" max="23" width="9.140625" style="2"/>
+    <col min="24" max="24" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:21" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:24" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="7" t="s">
         <v>1</v>
       </c>
@@ -3307,7 +3317,7 @@
       <c r="P4" s="8"/>
       <c r="Q4" s="9"/>
     </row>
-    <row r="5" spans="1:21" s="22" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" s="22" customFormat="1" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
@@ -3371,8 +3381,14 @@
       <c r="U5" s="22" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="V5" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="W5" s="22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>20</v>
       </c>
@@ -3438,8 +3454,20 @@
         <f>T6/R6</f>
         <v>7.6426353282987325</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V6" s="5">
+        <f>R6/S6</f>
+        <v>0.11570544886068286</v>
+      </c>
+      <c r="W6" s="5">
+        <f>V6*S6</f>
+        <v>4.7032408120824265E-3</v>
+      </c>
+      <c r="X6" s="46">
+        <f>W6-R6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>21</v>
       </c>
@@ -3505,8 +3533,20 @@
         <f t="shared" ref="U7:U32" si="3">T7/R7</f>
         <v>25.317598456940242</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V7" s="5">
+        <f t="shared" ref="V7:V32" si="4">R7/S7</f>
+        <v>3.7997388007730198E-2</v>
+      </c>
+      <c r="W7" s="5">
+        <f t="shared" ref="W7:W32" si="5">V7*S7</f>
+        <v>6.4283474399764507E-4</v>
+      </c>
+      <c r="X7" s="46">
+        <f t="shared" ref="X7:X32" si="6">W7-R7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>22</v>
       </c>
@@ -3572,8 +3612,20 @@
         <f t="shared" si="3"/>
         <v>9.3921984381013868</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V8" s="5">
+        <f t="shared" si="4"/>
+        <v>9.6226030127913531E-2</v>
+      </c>
+      <c r="W8" s="5">
+        <f t="shared" si="5"/>
+        <v>6.4954834597666143E-3</v>
+      </c>
+      <c r="X8" s="46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>23</v>
       </c>
@@ -3639,8 +3691,20 @@
         <f t="shared" si="3"/>
         <v>2.0208060380131654</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V9" s="5">
+        <f t="shared" si="4"/>
+        <v>0.33103747391133947</v>
+      </c>
+      <c r="W9" s="5">
+        <f t="shared" si="5"/>
+        <v>8.9366659653049671E-2</v>
+      </c>
+      <c r="X9" s="46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>24</v>
       </c>
@@ -3706,8 +3770,20 @@
         <f t="shared" si="3"/>
         <v>3.4527585092060868</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V10" s="5">
+        <f t="shared" si="4"/>
+        <v>0.22457988636313828</v>
+      </c>
+      <c r="W10" s="5">
+        <f t="shared" si="5"/>
+        <v>2.9027296704452348E-2</v>
+      </c>
+      <c r="X10" s="46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>25</v>
       </c>
@@ -3773,8 +3849,20 @@
         <f t="shared" si="3"/>
         <v>0.47298468936358401</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V11" s="5">
+        <f t="shared" si="4"/>
+        <v>0.67889368248088089</v>
+      </c>
+      <c r="W11" s="5">
+        <f t="shared" si="5"/>
+        <v>1.2635639924839628</v>
+      </c>
+      <c r="X11" s="46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>26</v>
       </c>
@@ -3840,8 +3928,20 @@
         <f t="shared" si="3"/>
         <v>0.78472568325307346</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V12" s="5">
+        <f t="shared" si="4"/>
+        <v>0.56031019746254207</v>
+      </c>
+      <c r="W12" s="5">
+        <f t="shared" si="5"/>
+        <v>0.11137488044531825</v>
+      </c>
+      <c r="X12" s="46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>27</v>
       </c>
@@ -3907,8 +4007,20 @@
         <f t="shared" si="3"/>
         <v>0.97666243075257608</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V13" s="5">
+        <f t="shared" si="4"/>
+        <v>0.50590327637241994</v>
+      </c>
+      <c r="W13" s="5">
+        <f t="shared" si="5"/>
+        <v>0.32918494562284123</v>
+      </c>
+      <c r="X13" s="46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
         <v>28</v>
       </c>
@@ -3974,8 +4086,20 @@
         <f t="shared" si="3"/>
         <v>9.9421024293299389</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V14" s="5">
+        <f t="shared" si="4"/>
+        <v>9.1390115058650287E-2</v>
+      </c>
+      <c r="W14" s="5">
+        <f t="shared" si="5"/>
+        <v>4.4497168054459142E-3</v>
+      </c>
+      <c r="X14" s="46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>29</v>
       </c>
@@ -4041,8 +4165,20 @@
         <f t="shared" si="3"/>
         <v>5.9075060233502663</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V15" s="5">
+        <f t="shared" si="4"/>
+        <v>0.14477005110376753</v>
+      </c>
+      <c r="W15" s="5">
+        <f t="shared" si="5"/>
+        <v>1.0477079941060841E-2</v>
+      </c>
+      <c r="X15" s="46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>30</v>
       </c>
@@ -4108,8 +4244,20 @@
         <f t="shared" si="3"/>
         <v>4.2424326412401969</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V16" s="5">
+        <f t="shared" si="4"/>
+        <v>0.19075113948692168</v>
+      </c>
+      <c r="W16" s="5">
+        <f t="shared" si="5"/>
+        <v>5.8708533180922258E-3</v>
+      </c>
+      <c r="X16" s="46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>31</v>
       </c>
@@ -4175,8 +4323,20 @@
         <f t="shared" si="3"/>
         <v>19.803603411113087</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V17" s="5">
+        <f t="shared" si="4"/>
+        <v>4.8068595629246105E-2</v>
+      </c>
+      <c r="W17" s="5">
+        <f t="shared" si="5"/>
+        <v>5.7163555907566296E-4</v>
+      </c>
+      <c r="X17" s="46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>32</v>
       </c>
@@ -4242,8 +4402,20 @@
         <f t="shared" si="3"/>
         <v>0.25339937987448669</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V18" s="5">
+        <f t="shared" si="4"/>
+        <v>0.79783029739502365</v>
+      </c>
+      <c r="W18" s="5">
+        <f t="shared" si="5"/>
+        <v>1.3829911617983917</v>
+      </c>
+      <c r="X18" s="46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>33</v>
       </c>
@@ -4309,8 +4481,20 @@
         <f t="shared" si="3"/>
         <v>1.0368294306115702</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V19" s="5">
+        <f t="shared" si="4"/>
+        <v>0.49095912744139014</v>
+      </c>
+      <c r="W19" s="5">
+        <f t="shared" si="5"/>
+        <v>0.10199649635739109</v>
+      </c>
+      <c r="X19" s="46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>34</v>
       </c>
@@ -4376,8 +4560,20 @@
         <f t="shared" si="3"/>
         <v>0.85997213578043741</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V20" s="5">
+        <f t="shared" si="4"/>
+        <v>0.53764246289657647</v>
+      </c>
+      <c r="W20" s="5">
+        <f t="shared" si="5"/>
+        <v>0.16278485011064781</v>
+      </c>
+      <c r="X20" s="46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>35</v>
       </c>
@@ -4443,8 +4639,20 @@
         <f t="shared" si="3"/>
         <v>2.4444837059336564</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V21" s="5">
+        <f t="shared" si="4"/>
+        <v>0.29031927144185504</v>
+      </c>
+      <c r="W21" s="5">
+        <f t="shared" si="5"/>
+        <v>4.4014179078807947E-2</v>
+      </c>
+      <c r="X21" s="46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>36</v>
       </c>
@@ -4510,8 +4718,20 @@
         <f t="shared" si="3"/>
         <v>1.4381228238022521</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V22" s="5">
+        <f t="shared" si="4"/>
+        <v>0.41015160936006506</v>
+      </c>
+      <c r="W22" s="5">
+        <f t="shared" si="5"/>
+        <v>8.0467313494093376E-2</v>
+      </c>
+      <c r="X22" s="46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>37</v>
       </c>
@@ -4577,8 +4797,20 @@
         <f t="shared" si="3"/>
         <v>0.69289760501864028</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V23" s="5">
+        <f t="shared" si="4"/>
+        <v>0.59070318076856698</v>
+      </c>
+      <c r="W23" s="5">
+        <f t="shared" si="5"/>
+        <v>0.1729587624195239</v>
+      </c>
+      <c r="X23" s="46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>38</v>
       </c>
@@ -4644,8 +4876,20 @@
         <f t="shared" si="3"/>
         <v>0.13128563248830105</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V24" s="5">
+        <f t="shared" si="4"/>
+        <v>0.88395005759992384</v>
+      </c>
+      <c r="W24" s="5">
+        <f t="shared" si="5"/>
+        <v>0.4034578328340257</v>
+      </c>
+      <c r="X24" s="46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
         <v>39</v>
       </c>
@@ -4711,8 +4955,20 @@
         <f t="shared" si="3"/>
         <v>0.11997369576440167</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V25" s="5">
+        <f t="shared" si="4"/>
+        <v>0.8928781129252169</v>
+      </c>
+      <c r="W25" s="5">
+        <f t="shared" si="5"/>
+        <v>0.46463186469021006</v>
+      </c>
+      <c r="X25" s="46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
         <v>40</v>
       </c>
@@ -4778,8 +5034,20 @@
         <f t="shared" si="3"/>
         <v>0.16382568124446648</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V26" s="5">
+        <f t="shared" si="4"/>
+        <v>0.85923520688313959</v>
+      </c>
+      <c r="W26" s="5">
+        <f t="shared" si="5"/>
+        <v>0.44593681622323939</v>
+      </c>
+      <c r="X26" s="46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
         <v>41</v>
       </c>
@@ -4845,8 +5113,20 @@
         <f t="shared" si="3"/>
         <v>0.39844164444165381</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V27" s="5">
+        <f t="shared" si="4"/>
+        <v>0.71508167965011016</v>
+      </c>
+      <c r="W27" s="5">
+        <f t="shared" si="5"/>
+        <v>0.22528060615556433</v>
+      </c>
+      <c r="X27" s="46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
         <v>42</v>
       </c>
@@ -4912,8 +5192,20 @@
         <f t="shared" si="3"/>
         <v>0.23222481095964112</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V28" s="5">
+        <f t="shared" si="4"/>
+        <v>0.81154022472669785</v>
+      </c>
+      <c r="W28" s="5">
+        <f t="shared" si="5"/>
+        <v>0.17723824261411755</v>
+      </c>
+      <c r="X28" s="46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
         <v>43</v>
       </c>
@@ -4979,8 +5271,20 @@
         <f t="shared" si="3"/>
         <v>0.16633088373483337</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V29" s="5">
+        <f t="shared" si="4"/>
+        <v>0.85738962583052991</v>
+      </c>
+      <c r="W29" s="5">
+        <f t="shared" si="5"/>
+        <v>0.50413416564100821</v>
+      </c>
+      <c r="X29" s="46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
         <v>44</v>
       </c>
@@ -5046,8 +5350,20 @@
         <f t="shared" si="3"/>
         <v>0.12096789452889528</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V30" s="5">
+        <f t="shared" si="4"/>
+        <v>0.89208620949868156</v>
+      </c>
+      <c r="W30" s="5">
+        <f t="shared" si="5"/>
+        <v>0.28743074192629753</v>
+      </c>
+      <c r="X30" s="46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
         <v>45</v>
       </c>
@@ -5113,8 +5429,20 @@
         <f t="shared" si="3"/>
         <v>0.16167073260457854</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V31" s="5">
+        <f t="shared" si="4"/>
+        <v>0.86082912475370965</v>
+      </c>
+      <c r="W31" s="5">
+        <f t="shared" si="5"/>
+        <v>0.90531382685525619</v>
+      </c>
+      <c r="X31" s="46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
         <v>46</v>
       </c>
@@ -5179,6 +5507,18 @@
       <c r="U32" s="28">
         <f t="shared" si="3"/>
         <v>0.13842411839056085</v>
+      </c>
+      <c r="V32" s="5">
+        <f t="shared" si="4"/>
+        <v>0.87840725072984494</v>
+      </c>
+      <c r="W32" s="5">
+        <f t="shared" si="5"/>
+        <v>1.4108985599503596</v>
+      </c>
+      <c r="X32" s="46">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
